--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\MPoEFUbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\Colorado\CO_Model\InputData\trans\MPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C25322A-5EF1-46CE-9F6F-0E368E83FC62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="23955" windowHeight="12090"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -103,7 +104,18 @@
     <definedName name="max_biodsl">'Max Biofuel Blends'!$A$3</definedName>
     <definedName name="max_biogas">'Max Biofuel Blends'!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -341,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,15 +496,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -583,6 +595,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -618,6 +647,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -793,10 +839,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1216,8 +1262,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1"/>
-    <hyperlink ref="B26" r:id="rId2"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1225,7 +1271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2454,7 +2500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2469,7 +2515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3698,7 +3744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4927,7 +4973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6191,7 +6237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7455,7 +7501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8719,7 +8765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9948,7 +9994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11177,7 +11223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -11192,10 +11238,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:AI11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11370,11 +11418,11 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:Y11" si="0">TREND($A$7:$B$7,$A$6:$B$6,F10:AK10)</f>
+        <f>_xlfn.FORECAST.LINEAR(F10,$A$7:$B$7,$A$6:$B$6)</f>
         <v>9.9999999999980105E-3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G11:AI11" si="0">_xlfn.FORECAST.LINEAR(G10,$A$7:$B$7,$A$6:$B$6)</f>
         <v>1.9999999999996021E-2</v>
       </c>
       <c r="H11">
@@ -11411,7 +11459,7 @@
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>0.10999999999999943</v>
+        <v>0.10999999999999588</v>
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
@@ -11450,44 +11498,44 @@
         <v>0.19999999999999929</v>
       </c>
       <c r="Z11">
-        <f>Y11</f>
-        <v>0.19999999999999929</v>
+        <f t="shared" si="0"/>
+        <v>0.2099999999999973</v>
       </c>
       <c r="AA11">
-        <f t="shared" ref="AA11:AI11" si="1">Z11</f>
-        <v>0.19999999999999929</v>
+        <f t="shared" si="0"/>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
+        <f t="shared" si="0"/>
+        <v>0.22999999999999687</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
+        <f t="shared" si="0"/>
+        <v>0.23999999999999844</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
+        <f t="shared" si="0"/>
+        <v>0.24999999999999645</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
+        <f t="shared" si="0"/>
+        <v>0.25999999999999801</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
+        <f t="shared" si="0"/>
+        <v>0.26999999999999602</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
+        <f t="shared" si="0"/>
+        <v>0.27999999999999758</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
+        <f t="shared" si="0"/>
+        <v>0.28999999999999915</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
+        <f t="shared" si="0"/>
+        <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
@@ -11507,7 +11555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12736,7 +12784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13965,7 +14013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -15229,7 +15277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -16493,7 +16541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -17757,7 +17805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -18986,7 +19034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -20215,7 +20263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -20230,7 +20278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -21459,7 +21507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -22688,7 +22736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -22703,7 +22751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23967,7 +24015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -25231,7 +25279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -26495,7 +26543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -27724,7 +27772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -28953,7 +29001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -28968,7 +29016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -30164,7 +30212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -31360,7 +31408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -31970,7 +32018,7 @@
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999943</v>
+        <v>0.10999999999999588</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -32010,43 +32058,43 @@
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.2099999999999973</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.22999999999999687</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.23999999999999844</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.24999999999999645</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.25999999999999801</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.26999999999999602</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.27999999999999758</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.28999999999999915</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -32590,7 +32638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -33307,7 +33355,7 @@
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999943</v>
+        <v>0.10999999999999588</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -33347,43 +33395,43 @@
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.2099999999999973</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.22999999999999687</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.23999999999999844</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.24999999999999645</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.25999999999999801</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.26999999999999602</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.27999999999999758</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.28999999999999915</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -33820,7 +33868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -35049,7 +35097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -36245,7 +36293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -36260,7 +36308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -37456,7 +37504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -38652,7 +38700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -39262,7 +39310,7 @@
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999943</v>
+        <v>0.10999999999999588</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -39302,43 +39350,43 @@
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.2099999999999973</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.22999999999999687</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.23999999999999844</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.24999999999999645</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.25999999999999801</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.26999999999999602</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.27999999999999758</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.28999999999999915</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -39882,7 +39930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -40599,7 +40647,7 @@
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999943</v>
+        <v>0.10999999999999588</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -40639,43 +40687,43 @@
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.2099999999999973</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.22999999999999687</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.23999999999999844</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.24999999999999645</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.25999999999999801</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.26999999999999602</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.27999999999999758</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.28999999999999915</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -41112,7 +41160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -42308,7 +42356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -42323,7 +42371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -43519,7 +43567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -44715,7 +44763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -45944,7 +45992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -46554,7 +46602,7 @@
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999943</v>
+        <v>0.10999999999999588</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -46594,43 +46642,43 @@
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.2099999999999973</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.22999999999999687</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.23999999999999844</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.24999999999999645</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.25999999999999801</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.26999999999999602</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.27999999999999758</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.28999999999999915</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -47174,7 +47222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -47891,7 +47939,7 @@
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999943</v>
+        <v>0.10999999999999588</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -47931,43 +47979,43 @@
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.2099999999999973</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.22999999999999687</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.23999999999999844</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.24999999999999645</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.25999999999999801</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.26999999999999602</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.27999999999999758</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.28999999999999915</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -48404,7 +48452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -49600,7 +49648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -49615,7 +49663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -50811,7 +50859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -52007,7 +52055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -52617,7 +52665,7 @@
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999943</v>
+        <v>0.10999999999999588</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -52657,43 +52705,43 @@
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.2099999999999973</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.22999999999999687</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.23999999999999844</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.24999999999999645</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.25999999999999801</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.26999999999999602</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.27999999999999758</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.28999999999999915</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -53237,7 +53285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -53954,7 +54002,7 @@
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999943</v>
+        <v>0.10999999999999588</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -53994,43 +54042,43 @@
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.2099999999999973</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.22999999999999687</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.23999999999999844</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.24999999999999645</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.25999999999999801</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.26999999999999602</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.27999999999999758</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.28999999999999915</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -54467,7 +54515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -55663,7 +55711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -55678,7 +55726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -56942,7 +56990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -58138,7 +58186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -59334,7 +59382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -59944,7 +59992,7 @@
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999943</v>
+        <v>0.10999999999999588</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -59984,43 +60032,43 @@
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.2099999999999973</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.22999999999999687</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.23999999999999844</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.24999999999999645</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.25999999999999801</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.26999999999999602</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.27999999999999758</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.28999999999999915</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -60564,7 +60612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -61281,7 +61329,7 @@
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999943</v>
+        <v>0.10999999999999588</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -61321,43 +61369,43 @@
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.2099999999999973</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.22999999999999687</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.23999999999999844</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.24999999999999645</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.25999999999999801</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.26999999999999602</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.27999999999999758</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.28999999999999915</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -61794,7 +61842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -62990,7 +63038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -63005,7 +63053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -64201,7 +64249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -65397,7 +65445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -66007,7 +66055,7 @@
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999943</v>
+        <v>0.10999999999999588</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -66047,43 +66095,43 @@
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.2099999999999973</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.22999999999999687</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.23999999999999844</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.24999999999999645</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.25999999999999801</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.26999999999999602</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.27999999999999758</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.28999999999999915</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -66627,7 +66675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -67344,7 +67392,7 @@
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999943</v>
+        <v>0.10999999999999588</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -67384,43 +67432,43 @@
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.2099999999999973</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.21999999999999886</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.22999999999999687</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.23999999999999844</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.24999999999999645</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.25999999999999801</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.26999999999999602</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.27999999999999758</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.28999999999999915</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -67857,7 +67905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -69121,7 +69169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -70317,7 +70365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -70332,7 +70380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -71561,7 +71609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -72790,7 +72838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -74054,7 +74102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -75320,7 +75368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -76584,7 +76632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -77813,7 +77861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -79042,7 +79090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -79057,7 +79105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -80324,7 +80372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -81553,7 +81601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -82782,7 +82830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -84046,7 +84094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -85310,7 +85358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -86574,7 +86622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -87803,7 +87851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -89032,7 +89080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>

--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\Colorado\CO_Model\InputData\trans\MPoEFUbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jshepard/Projects/state-eps-data-repository/template_state/trans/MPoEFUbVT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C25322A-5EF1-46CE-9F6F-0E368E83FC62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3532F9-10FB-514D-9115-8BE74493AF02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="23960" windowHeight="12100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -844,17 +844,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="69.28515625" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -864,7 +864,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -893,7 +893,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2017</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -945,7 +945,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -955,7 +955,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -981,7 +981,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>34</v>
       </c>
@@ -1007,255 +1007,255 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1279,12 +1279,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -2508,7 +2508,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2523,12 +2523,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -3752,12 +3752,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -4981,12 +4981,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -6245,12 +6245,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -7509,12 +7509,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -8773,12 +8773,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -10002,12 +10002,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -11231,7 +11231,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11241,18 +11241,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:AI11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.25</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -11268,12 +11268,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2030</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.1</v>
       </c>
@@ -11289,12 +11289,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -11418,11 +11418,11 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f>_xlfn.FORECAST.LINEAR(F10,$A$7:$B$7,$A$6:$B$6)</f>
+        <f>TREND($A$7:$B$7,$A$6:$B$6,F10)</f>
         <v>9.9999999999980105E-3</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:AI11" si="0">_xlfn.FORECAST.LINEAR(G10,$A$7:$B$7,$A$6:$B$6)</f>
+        <f t="shared" ref="G11:AI11" si="0">TREND($A$7:$B$7,$A$6:$B$6,G10)</f>
         <v>1.9999999999996021E-2</v>
       </c>
       <c r="H11">
@@ -11459,7 +11459,7 @@
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>0.10999999999999588</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
@@ -11538,12 +11538,12 @@
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -11563,12 +11563,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -12792,12 +12792,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -14021,12 +14021,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -14356,7 +14356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -14576,7 +14576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14941,7 +14941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -15285,12 +15285,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -15400,7 +15400,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -16095,7 +16095,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -16549,12 +16549,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -17214,7 +17214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17469,7 +17469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -17813,12 +17813,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18038,7 +18038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -18368,7 +18368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -18588,7 +18588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -19042,12 +19042,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -19157,7 +19157,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -19267,7 +19267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -19487,7 +19487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -19597,7 +19597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -19707,7 +19707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -19927,7 +19927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -20037,7 +20037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -20147,7 +20147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -20271,7 +20271,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20286,12 +20286,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -21061,7 +21061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -21171,7 +21171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -21281,7 +21281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -21391,7 +21391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -21515,12 +21515,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -21630,7 +21630,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -21740,7 +21740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -21850,7 +21850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -21960,7 +21960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -22070,7 +22070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -22180,7 +22180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -22290,7 +22290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -22400,7 +22400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -22510,7 +22510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -22620,7 +22620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -22744,7 +22744,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22759,12 +22759,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -22874,7 +22874,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -22984,7 +22984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -23094,7 +23094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -23569,7 +23569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -23679,7 +23679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -24023,12 +24023,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -24138,7 +24138,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -24358,7 +24358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -24468,7 +24468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -24578,7 +24578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -24833,7 +24833,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -24943,7 +24943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -25053,7 +25053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -25163,7 +25163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -25287,12 +25287,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -25402,7 +25402,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -25512,7 +25512,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -25622,7 +25622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -25732,7 +25732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -25842,7 +25842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -26097,7 +26097,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -26207,7 +26207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -26317,7 +26317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -26427,7 +26427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -26551,12 +26551,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -26666,7 +26666,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -26776,7 +26776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -26886,7 +26886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -27106,7 +27106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -27216,7 +27216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -27326,7 +27326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -27656,7 +27656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -27780,12 +27780,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -27895,7 +27895,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -28005,7 +28005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -28115,7 +28115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -28225,7 +28225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -28445,7 +28445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -28555,7 +28555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -28665,7 +28665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -28775,7 +28775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -28885,7 +28885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -29009,7 +29009,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29024,12 +29024,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -29136,7 +29136,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -29243,7 +29243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -29350,7 +29350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -29564,7 +29564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -29671,7 +29671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -29778,7 +29778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -29885,7 +29885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -30099,7 +30099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -30220,12 +30220,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -30332,7 +30332,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -30439,7 +30439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -30546,7 +30546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -30653,7 +30653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -30867,7 +30867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -30974,7 +30974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -31081,7 +31081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -31188,7 +31188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -31295,7 +31295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -31414,14 +31414,16 @@
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -31528,7 +31530,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -31635,7 +31637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -31742,7 +31744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -31849,7 +31851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -31956,7 +31958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -32018,7 +32020,7 @@
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -32097,7 +32099,7 @@
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -32204,7 +32206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -32311,7 +32313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -32418,7 +32420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -32525,7 +32527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -32646,12 +32648,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -32758,7 +32760,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -32865,7 +32867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -32972,7 +32974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -33079,7 +33081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -33186,7 +33188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -33293,7 +33295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -33355,7 +33357,7 @@
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -33434,7 +33436,7 @@
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -33541,7 +33543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -33648,7 +33650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -33755,7 +33757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -33876,12 +33878,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -33991,7 +33993,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -34101,7 +34103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -34211,7 +34213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -34321,7 +34323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -34431,7 +34433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -34541,7 +34543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -34651,7 +34653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -34761,7 +34763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -34871,7 +34873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -34981,7 +34983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -35105,12 +35107,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -35217,7 +35219,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -35324,7 +35326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -35538,7 +35540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -35645,7 +35647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -35752,7 +35754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -35859,7 +35861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -35966,7 +35968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -36073,7 +36075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -36180,7 +36182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -36301,7 +36303,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36316,12 +36318,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -36428,7 +36430,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -36535,7 +36537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -36642,7 +36644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -36749,7 +36751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -36856,7 +36858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -36963,7 +36965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -37070,7 +37072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -37177,7 +37179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -37284,7 +37286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -37391,7 +37393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -37512,12 +37514,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -37624,7 +37626,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -37731,7 +37733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -37838,7 +37840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -37945,7 +37947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -38052,7 +38054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -38159,7 +38161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -38266,7 +38268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -38373,7 +38375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -38480,7 +38482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -38587,7 +38589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -38708,12 +38710,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -38820,7 +38822,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -38927,7 +38929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -39034,7 +39036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -39141,7 +39143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -39248,7 +39250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -39310,7 +39312,7 @@
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -39389,7 +39391,7 @@
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -39496,7 +39498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -39603,7 +39605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -39710,7 +39712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -39817,7 +39819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -39938,12 +39940,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -40050,7 +40052,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -40157,7 +40159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -40264,7 +40266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -40371,7 +40373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -40478,7 +40480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -40585,7 +40587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -40647,7 +40649,7 @@
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -40726,7 +40728,7 @@
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -40833,7 +40835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -40940,7 +40942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -41047,7 +41049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -41168,12 +41170,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -41280,7 +41282,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -41387,7 +41389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -41494,7 +41496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -41601,7 +41603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -41708,7 +41710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -41815,7 +41817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -41922,7 +41924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -42029,7 +42031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -42136,7 +42138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -42243,7 +42245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -42364,7 +42366,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42379,12 +42381,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -42491,7 +42493,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -42598,7 +42600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -42705,7 +42707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -42812,7 +42814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -42919,7 +42921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -43026,7 +43028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -43133,7 +43135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -43240,7 +43242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -43347,7 +43349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -43454,7 +43456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -43575,12 +43577,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -43687,7 +43689,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -43794,7 +43796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -43901,7 +43903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -44008,7 +44010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -44115,7 +44117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -44222,7 +44224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -44329,7 +44331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -44436,7 +44438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -44543,7 +44545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -44650,7 +44652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -44771,12 +44773,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -44886,7 +44888,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -44996,7 +44998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -45106,7 +45108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -45216,7 +45218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -45326,7 +45328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -45436,7 +45438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -45546,7 +45548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -45656,7 +45658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -45766,7 +45768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -45876,7 +45878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -46000,12 +46002,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -46112,7 +46114,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -46219,7 +46221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -46326,7 +46328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -46433,7 +46435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -46540,7 +46542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -46602,7 +46604,7 @@
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -46681,7 +46683,7 @@
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -46788,7 +46790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -46895,7 +46897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -47002,7 +47004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -47109,7 +47111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -47230,12 +47232,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -47342,7 +47344,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -47449,7 +47451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -47556,7 +47558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -47663,7 +47665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -47770,7 +47772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -47877,7 +47879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -47939,7 +47941,7 @@
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -48018,7 +48020,7 @@
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -48125,7 +48127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -48232,7 +48234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -48339,7 +48341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -48460,12 +48462,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -48572,7 +48574,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -48679,7 +48681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -48786,7 +48788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -48893,7 +48895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -49000,7 +49002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -49107,7 +49109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -49214,7 +49216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -49321,7 +49323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -49428,7 +49430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -49535,7 +49537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -49656,7 +49658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49671,12 +49673,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -49783,7 +49785,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -49890,7 +49892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -49997,7 +49999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -50104,7 +50106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -50211,7 +50213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -50318,7 +50320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -50425,7 +50427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -50532,7 +50534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -50639,7 +50641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -50746,7 +50748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -50867,12 +50869,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -50979,7 +50981,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -51086,7 +51088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -51193,7 +51195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -51300,7 +51302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -51407,7 +51409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -51514,7 +51516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -51621,7 +51623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -51728,7 +51730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -51835,7 +51837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -51942,7 +51944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -52063,12 +52065,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -52175,7 +52177,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -52282,7 +52284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -52389,7 +52391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -52496,7 +52498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -52603,7 +52605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -52665,7 +52667,7 @@
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -52744,7 +52746,7 @@
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -52851,7 +52853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -52958,7 +52960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -53065,7 +53067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -53172,7 +53174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -53293,12 +53295,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -53405,7 +53407,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -53512,7 +53514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -53619,7 +53621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -53726,7 +53728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -53833,7 +53835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -53940,7 +53942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -54002,7 +54004,7 @@
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -54081,7 +54083,7 @@
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -54188,7 +54190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -54295,7 +54297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -54402,7 +54404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -54523,12 +54525,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -54635,7 +54637,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -54742,7 +54744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -54849,7 +54851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -54956,7 +54958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -55063,7 +55065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -55170,7 +55172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -55277,7 +55279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -55384,7 +55386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -55491,7 +55493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -55598,7 +55600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -55719,7 +55721,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55734,12 +55736,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -55849,7 +55851,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -55959,7 +55961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -56069,7 +56071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -56179,7 +56181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -56289,7 +56291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -56434,7 +56436,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -56544,7 +56546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -56654,7 +56656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -56764,7 +56766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -56874,7 +56876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -56998,12 +57000,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -57110,7 +57112,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -57217,7 +57219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -57324,7 +57326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -57431,7 +57433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -57538,7 +57540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -57645,7 +57647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -57752,7 +57754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -57859,7 +57861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -57966,7 +57968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -58073,7 +58075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -58194,12 +58196,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -58306,7 +58308,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -58413,7 +58415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -58520,7 +58522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -58627,7 +58629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -58734,7 +58736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -58841,7 +58843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -58948,7 +58950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -59055,7 +59057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -59162,7 +59164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -59269,7 +59271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -59390,12 +59392,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -59502,7 +59504,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -59609,7 +59611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -59716,7 +59718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -59823,7 +59825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -59930,7 +59932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -59992,7 +59994,7 @@
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -60071,7 +60073,7 @@
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -60178,7 +60180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -60285,7 +60287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -60392,7 +60394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -60499,7 +60501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -60620,12 +60622,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -60732,7 +60734,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -60839,7 +60841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -60946,7 +60948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -61053,7 +61055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -61160,7 +61162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -61267,7 +61269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -61329,7 +61331,7 @@
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -61408,7 +61410,7 @@
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -61515,7 +61517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -61622,7 +61624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -61729,7 +61731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -61850,12 +61852,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -61962,7 +61964,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -62069,7 +62071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -62176,7 +62178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -62283,7 +62285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -62390,7 +62392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -62497,7 +62499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -62604,7 +62606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -62711,7 +62713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -62818,7 +62820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -62925,7 +62927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -63046,7 +63048,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -63061,12 +63063,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -63173,7 +63175,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -63280,7 +63282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -63387,7 +63389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -63494,7 +63496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -63601,7 +63603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -63708,7 +63710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -63815,7 +63817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -63922,7 +63924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -64029,7 +64031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -64136,7 +64138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -64257,12 +64259,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -64369,7 +64371,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -64476,7 +64478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -64583,7 +64585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -64690,7 +64692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -64797,7 +64799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -64904,7 +64906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -65011,7 +65013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -65118,7 +65120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -65225,7 +65227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -65332,7 +65334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -65453,12 +65455,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -65565,7 +65567,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -65672,7 +65674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -65779,7 +65781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -65886,7 +65888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -65993,7 +65995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -66055,7 +66057,7 @@
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -66134,7 +66136,7 @@
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -66241,7 +66243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -66348,7 +66350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -66455,7 +66457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -66562,7 +66564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -66683,12 +66685,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -66795,7 +66797,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -66902,7 +66904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -67009,7 +67011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -67116,7 +67118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -67223,7 +67225,7 @@
         <v>0.42991564609237387</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -67330,7 +67332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -67392,7 +67394,7 @@
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.10999999999999943</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
@@ -67471,7 +67473,7 @@
         <v>0.29999999999999716</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -67578,7 +67580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -67685,7 +67687,7 @@
         <v>0.57008435390762602</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -67792,7 +67794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -67913,12 +67915,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -68028,7 +68030,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -68138,7 +68140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -68248,7 +68250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -68358,7 +68360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -68468,7 +68470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -68578,7 +68580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -68723,7 +68725,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -68833,7 +68835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -68943,7 +68945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -69053,7 +69055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -69177,12 +69179,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -69289,7 +69291,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -69396,7 +69398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -69503,7 +69505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -69610,7 +69612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -69717,7 +69719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -69824,7 +69826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -69931,7 +69933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -70038,7 +70040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -70145,7 +70147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -70252,7 +70254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -70373,7 +70375,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -70388,12 +70390,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -70503,7 +70505,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -70613,7 +70615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -70723,7 +70725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -70833,7 +70835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -70943,7 +70945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -71053,7 +71055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -71163,7 +71165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -71273,7 +71275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -71383,7 +71385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -71493,7 +71495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -71617,12 +71619,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -71732,7 +71734,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -71842,7 +71844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -71952,7 +71954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -72062,7 +72064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -72172,7 +72174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -72282,7 +72284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -72392,7 +72394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -72502,7 +72504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -72612,7 +72614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -72722,7 +72724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -72846,12 +72848,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -72961,7 +72963,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -73071,7 +73073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -73181,7 +73183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -73291,7 +73293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -73401,7 +73403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -73546,7 +73548,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -73656,7 +73658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -73766,7 +73768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -73876,7 +73878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -73986,7 +73988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -74112,12 +74114,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -74227,7 +74229,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -74337,7 +74339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -74447,7 +74449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -74557,7 +74559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -74667,7 +74669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -74777,7 +74779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -74922,7 +74924,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -75032,7 +75034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -75142,7 +75144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -75252,7 +75254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -75376,12 +75378,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -75491,7 +75493,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -75601,7 +75603,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -75711,7 +75713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -75821,7 +75823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -75931,7 +75933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -76076,7 +76078,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -76186,7 +76188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -76296,7 +76298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -76406,7 +76408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -76516,7 +76518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -76640,12 +76642,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -76755,7 +76757,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -76865,7 +76867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -76975,7 +76977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -77085,7 +77087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -77195,7 +77197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -77305,7 +77307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -77415,7 +77417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -77525,7 +77527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -77635,7 +77637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -77745,7 +77747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -77869,12 +77871,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -77984,7 +77986,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -78094,7 +78096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -78204,7 +78206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -78314,7 +78316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -78424,7 +78426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -78534,7 +78536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -78644,7 +78646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -78754,7 +78756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -78864,7 +78866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -78974,7 +78976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -79098,7 +79100,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79113,12 +79115,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -79228,7 +79230,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -79338,7 +79340,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -79448,7 +79450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -79558,7 +79560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -79668,7 +79670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -79813,7 +79815,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -79923,7 +79925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -80033,7 +80035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -80143,7 +80145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -80253,7 +80255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -80380,12 +80382,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -80495,7 +80497,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -80605,7 +80607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -80715,7 +80717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -80825,7 +80827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -80935,7 +80937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -81045,7 +81047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -81155,7 +81157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -81265,7 +81267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -81375,7 +81377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -81485,7 +81487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -81609,12 +81611,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -81724,7 +81726,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -81834,7 +81836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -81944,7 +81946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -82054,7 +82056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -82164,7 +82166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -82274,7 +82276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -82384,7 +82386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -82494,7 +82496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -82604,7 +82606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -82714,7 +82716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -82838,12 +82840,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -82953,7 +82955,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -83063,7 +83065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -83173,7 +83175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -83283,7 +83285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -83393,7 +83395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -83538,7 +83540,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -83648,7 +83650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -83758,7 +83760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -83868,7 +83870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -83978,7 +83980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -84102,12 +84104,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -84217,7 +84219,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -84327,7 +84329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -84437,7 +84439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -84547,7 +84549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -84657,7 +84659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -84767,7 +84769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -84912,7 +84914,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -85022,7 +85024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -85132,7 +85134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -85242,7 +85244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -85366,12 +85368,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -85481,7 +85483,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -85591,7 +85593,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -85701,7 +85703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -85811,7 +85813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -85921,7 +85923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -86066,7 +86068,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -86176,7 +86178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -86286,7 +86288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -86396,7 +86398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -86506,7 +86508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -86630,12 +86632,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -86745,7 +86747,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -86855,7 +86857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -86965,7 +86967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -87075,7 +87077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -87185,7 +87187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -87295,7 +87297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -87405,7 +87407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -87515,7 +87517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -87625,7 +87627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -87735,7 +87737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -87859,12 +87861,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -87974,7 +87976,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -88084,7 +88086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -88194,7 +88196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -88304,7 +88306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -88414,7 +88416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -88524,7 +88526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -88634,7 +88636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -88744,7 +88746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -88854,7 +88856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -88964,7 +88966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -89088,12 +89090,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>74</v>
       </c>
@@ -89203,7 +89205,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -89313,7 +89315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -89423,7 +89425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -89533,7 +89535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -89643,7 +89645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -89753,7 +89755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -89863,7 +89865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -89973,7 +89975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -90083,7 +90085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -90193,7 +90195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>

--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\trans\MPoEFUbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\MPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC53F02F-B024-4276-A84F-B5ECF3A1ECF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FBF57E-9E0A-4861-96FF-003F2EEA3BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="8870" windowHeight="7455" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="74">
   <si>
     <t>Sources:</t>
   </si>
@@ -365,9 +365,6 @@
   <si>
     <t>We use a 100% maximum value to represent drop-in biofuel replacements.</t>
   </si>
-  <si>
-    <t>Colorado</t>
-  </si>
 </sst>
 </file>
 
@@ -501,7 +498,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -517,7 +514,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -830,29 +826,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A53" sqref="A53:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="69.26953125" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="9">
-        <v>45450</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,285 +850,285 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>44317</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -1161,12 +1151,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -1276,7 +1266,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1386,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1606,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1716,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1826,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1936,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2046,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2156,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2266,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2390,7 +2380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2405,12 +2395,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -2520,7 +2510,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2630,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2740,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2850,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2960,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3070,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3180,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3290,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -3400,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3510,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -3634,12 +3624,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -3749,7 +3739,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3859,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3969,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4079,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4189,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4299,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4409,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4519,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -4629,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -4739,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -4865,12 +4855,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -4980,7 +4970,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5090,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5200,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5310,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5420,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5565,7 +5555,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5675,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5785,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -5895,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -6005,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -6131,12 +6121,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -6246,7 +6236,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6356,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6466,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6576,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6686,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6796,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6941,7 +6931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7051,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -7161,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -7271,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -7397,12 +7387,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -7512,7 +7502,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7622,7 +7612,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7732,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7842,7 +7832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7952,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -8097,7 +8087,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8207,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8317,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -8427,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -8537,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -8661,12 +8651,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -8776,7 +8766,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8886,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8996,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9106,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -9216,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -9326,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9436,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9546,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -9656,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -9766,7 +9756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -9890,12 +9880,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -10005,7 +9995,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10115,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -10225,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10335,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10445,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -10555,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -10665,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10775,7 +10765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -10885,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -10995,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -11119,7 +11109,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11133,17 +11123,17 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.40625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.15</v>
       </c>
@@ -11151,7 +11141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11159,12 +11149,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -11172,7 +11162,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -11180,12 +11170,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -11193,7 +11183,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -11201,12 +11191,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -11313,7 +11303,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -11449,11 +11439,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -11560,7 +11550,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -11696,17 +11686,17 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
     </row>
@@ -11725,12 +11715,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -11840,7 +11830,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11950,7 +11940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -12060,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12170,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -12280,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -12390,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -12500,7 +12490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12610,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -12720,7 +12710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -12830,7 +12820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -12954,12 +12944,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -13069,7 +13059,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -13179,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -13289,7 +13279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13399,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -13509,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -13619,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -13729,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13839,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -13949,7 +13939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -14059,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -14185,12 +14175,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -14300,7 +14290,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14410,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -14520,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14630,7 +14620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -14740,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -14885,7 +14875,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -14995,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -15105,7 +15095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -15215,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -15325,7 +15315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -15451,12 +15441,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -15566,7 +15556,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15676,7 +15666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -15786,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -15896,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -16006,7 +15996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -16116,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -16261,7 +16251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -16371,7 +16361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -16481,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -16591,7 +16581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -16717,12 +16707,12 @@
       <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -16832,7 +16822,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -16942,7 +16932,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -17052,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -17162,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -17272,7 +17262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -17382,7 +17372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -17527,7 +17517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17637,7 +17627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -17747,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -17857,7 +17847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -17981,12 +17971,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -18096,7 +18086,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18206,7 +18196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -18316,7 +18306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -18426,7 +18416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -18536,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -18646,7 +18636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -18756,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -18866,7 +18856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -18976,7 +18966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -19086,7 +19076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -19210,12 +19200,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -19325,7 +19315,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -19435,7 +19425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -19545,7 +19535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -19655,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -19765,7 +19755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -19875,7 +19865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -19985,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -20095,7 +20085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -20205,7 +20195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -20315,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -20439,7 +20429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20454,12 +20444,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -20569,7 +20559,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -20679,7 +20669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -20789,7 +20779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -20899,7 +20889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -21009,7 +20999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -21119,7 +21109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -21229,7 +21219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -21339,7 +21329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -21449,7 +21439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -21559,7 +21549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -21683,12 +21673,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -21798,7 +21788,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -21908,7 +21898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -22018,7 +22008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -22128,7 +22118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -22238,7 +22228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -22348,7 +22338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -22458,7 +22448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -22568,7 +22558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -22678,7 +22668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -22788,7 +22778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -22912,7 +22902,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22929,12 +22919,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -23044,7 +23034,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -23154,7 +23144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -23264,7 +23254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -23374,7 +23364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -23484,7 +23474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -23629,7 +23619,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -23739,7 +23729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -23849,7 +23839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -23959,7 +23949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -24069,7 +24059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -24195,12 +24185,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -24310,7 +24300,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -24420,7 +24410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -24530,7 +24520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -24640,7 +24630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -24750,7 +24740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -24860,7 +24850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -25005,7 +24995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -25115,7 +25105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -25225,7 +25215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -25335,7 +25325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -25461,12 +25451,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -25576,7 +25566,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -25686,7 +25676,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -25796,7 +25786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -25906,7 +25896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -26016,7 +26006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -26126,7 +26116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -26271,7 +26261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -26381,7 +26371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -26491,7 +26481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -26601,7 +26591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -26725,12 +26715,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -26840,7 +26830,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -26950,7 +26940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -27060,7 +27050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -27170,7 +27160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -27280,7 +27270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -27390,7 +27380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -27500,7 +27490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -27610,7 +27600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -27720,7 +27710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -27830,7 +27820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -27954,12 +27944,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -28069,7 +28059,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -28179,7 +28169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -28289,7 +28279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -28399,7 +28389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -28509,7 +28499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -28619,7 +28609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -28729,7 +28719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -28839,7 +28829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -28949,7 +28939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -29059,7 +29049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -29183,7 +29173,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29198,12 +29188,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -29310,7 +29300,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -29417,7 +29407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -29524,7 +29514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -29631,7 +29621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -29738,7 +29728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -29845,7 +29835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -29952,7 +29942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -30059,7 +30049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -30166,7 +30156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -30273,7 +30263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -30394,12 +30384,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -30506,7 +30496,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -30613,7 +30603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -30720,7 +30710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -30827,7 +30817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -30934,7 +30924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -31041,7 +31031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -31148,7 +31138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -31255,7 +31245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -31362,7 +31352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -31469,7 +31459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -31592,12 +31582,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -31704,7 +31694,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -31811,7 +31801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -31918,7 +31908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -32025,7 +32015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -32132,7 +32122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -32273,7 +32263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -32380,7 +32370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -32487,7 +32477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -32594,7 +32584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -32701,7 +32691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -32824,12 +32814,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -32936,7 +32926,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -33043,7 +33033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -33150,7 +33140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -33257,7 +33247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -33364,7 +33354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -33471,7 +33461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -33612,7 +33602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -33719,7 +33709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -33826,7 +33816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -33933,7 +33923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -34054,12 +34044,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -34169,7 +34159,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -34279,7 +34269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -34389,7 +34379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -34499,7 +34489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -34609,7 +34599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -34719,7 +34709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -34829,7 +34819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -34939,7 +34929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -35049,7 +35039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -35159,7 +35149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -35283,12 +35273,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -35395,7 +35385,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -35502,7 +35492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -35609,7 +35599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -35716,7 +35706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -35823,7 +35813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -35930,7 +35920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -36037,7 +36027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -36144,7 +36134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -36251,7 +36241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -36358,7 +36348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -36479,7 +36469,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36494,12 +36484,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -36606,7 +36596,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -36713,7 +36703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -36820,7 +36810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -36927,7 +36917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -37034,7 +37024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -37141,7 +37131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -37248,7 +37238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -37355,7 +37345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -37462,7 +37452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -37569,7 +37559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -37690,12 +37680,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -37802,7 +37792,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -37909,7 +37899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -38016,7 +38006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -38123,7 +38113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -38230,7 +38220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -38337,7 +38327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -38444,7 +38434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -38551,7 +38541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -38658,7 +38648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -38765,7 +38755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -38886,12 +38876,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -38998,7 +38988,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -39105,7 +39095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -39212,7 +39202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -39319,7 +39309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -39426,7 +39416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -39567,7 +39557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -39674,7 +39664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -39781,7 +39771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -39888,7 +39878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -39995,7 +39985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -40116,12 +40106,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -40228,7 +40218,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -40335,7 +40325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -40442,7 +40432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -40549,7 +40539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -40656,7 +40646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -40763,7 +40753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -40904,7 +40894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -41011,7 +41001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -41118,7 +41108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -41225,7 +41215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -41346,12 +41336,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -41458,7 +41448,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -41565,7 +41555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -41672,7 +41662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -41779,7 +41769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -41886,7 +41876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -41993,7 +41983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -42100,7 +42090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -42207,7 +42197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -42314,7 +42304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -42421,7 +42411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -42542,7 +42532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42557,12 +42547,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -42669,7 +42659,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -42776,7 +42766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -42883,7 +42873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -42990,7 +42980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -43097,7 +43087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -43204,7 +43194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -43311,7 +43301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -43418,7 +43408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -43525,7 +43515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -43632,7 +43622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -43753,12 +43743,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -43865,7 +43855,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -43972,7 +43962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -44079,7 +44069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -44186,7 +44176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -44293,7 +44283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -44400,7 +44390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -44507,7 +44497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -44614,7 +44604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -44721,7 +44711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -44828,7 +44818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -44949,12 +44939,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -45064,7 +45054,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -45174,7 +45164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -45284,7 +45274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -45394,7 +45384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -45504,7 +45494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -45614,7 +45604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -45724,7 +45714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -45834,7 +45824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -45944,7 +45934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -46054,7 +46044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -46178,12 +46168,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -46290,7 +46280,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -46397,7 +46387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -46504,7 +46494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -46611,7 +46601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -46718,7 +46708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -46859,7 +46849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -46966,7 +46956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -47073,7 +47063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -47180,7 +47170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -47287,7 +47277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -47408,12 +47398,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -47520,7 +47510,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -47627,7 +47617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -47734,7 +47724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -47841,7 +47831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -47948,7 +47938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -48055,7 +48045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -48196,7 +48186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -48303,7 +48293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -48410,7 +48400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -48517,7 +48507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -48638,12 +48628,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -48750,7 +48740,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -48857,7 +48847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -48964,7 +48954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -49071,7 +49061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -49178,7 +49168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -49285,7 +49275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -49392,7 +49382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -49499,7 +49489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -49606,7 +49596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -49713,7 +49703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -49834,7 +49824,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49849,12 +49839,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -49961,7 +49951,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -50068,7 +50058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -50175,7 +50165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -50282,7 +50272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -50389,7 +50379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -50496,7 +50486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -50603,7 +50593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -50710,7 +50700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -50817,7 +50807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -50924,7 +50914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -51045,12 +51035,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -51157,7 +51147,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -51264,7 +51254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -51371,7 +51361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -51478,7 +51468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -51585,7 +51575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -51692,7 +51682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -51799,7 +51789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -51906,7 +51896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -52013,7 +52003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -52120,7 +52110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -52241,12 +52231,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -52353,7 +52343,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -52460,7 +52450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -52567,7 +52557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -52674,7 +52664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -52781,7 +52771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -52922,7 +52912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -53029,7 +53019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -53136,7 +53126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -53243,7 +53233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -53350,7 +53340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -53471,12 +53461,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -53583,7 +53573,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -53690,7 +53680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -53797,7 +53787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -53904,7 +53894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -54011,7 +54001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -54118,7 +54108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -54259,7 +54249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -54366,7 +54356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -54473,7 +54463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -54580,7 +54570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -54701,12 +54691,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -54813,7 +54803,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -54920,7 +54910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -55027,7 +55017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -55134,7 +55124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -55241,7 +55231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -55348,7 +55338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -55455,7 +55445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -55562,7 +55552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -55669,7 +55659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -55776,7 +55766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -55897,7 +55887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55914,12 +55904,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -56029,7 +56019,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -56139,7 +56129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -56249,7 +56239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -56359,7 +56349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -56469,7 +56459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -56614,7 +56604,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -56724,7 +56714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -56834,7 +56824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -56944,7 +56934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -57054,7 +57044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -57178,12 +57168,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -57290,7 +57280,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -57397,7 +57387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -57504,7 +57494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -57611,7 +57601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -57718,7 +57708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -57825,7 +57815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -57932,7 +57922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -58039,7 +58029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -58146,7 +58136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -58253,7 +58243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -58374,12 +58364,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -58486,7 +58476,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -58593,7 +58583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -58700,7 +58690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -58807,7 +58797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -58914,7 +58904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -59021,7 +59011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -59128,7 +59118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -59235,7 +59225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -59342,7 +59332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -59449,7 +59439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -59570,12 +59560,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -59682,7 +59672,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -59789,7 +59779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -59896,7 +59886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -60003,7 +59993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -60110,7 +60100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -60251,7 +60241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -60358,7 +60348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -60465,7 +60455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -60572,7 +60562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -60679,7 +60669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -60800,12 +60790,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -60912,7 +60902,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -61019,7 +61009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -61126,7 +61116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -61233,7 +61223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -61340,7 +61330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -61447,7 +61437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -61588,7 +61578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -61695,7 +61685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -61802,7 +61792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -61909,7 +61899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -62030,12 +62020,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -62142,7 +62132,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -62249,7 +62239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -62356,7 +62346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -62463,7 +62453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -62570,7 +62560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -62677,7 +62667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -62784,7 +62774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -62891,7 +62881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -62998,7 +62988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -63105,7 +63095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -63226,7 +63216,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -63241,12 +63231,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -63353,7 +63343,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -63460,7 +63450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -63567,7 +63557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -63674,7 +63664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -63781,7 +63771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -63888,7 +63878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -63995,7 +63985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -64102,7 +64092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -64209,7 +64199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -64316,7 +64306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -64437,12 +64427,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -64549,7 +64539,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -64656,7 +64646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -64763,7 +64753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -64870,7 +64860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -64977,7 +64967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -65084,7 +65074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -65191,7 +65181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -65298,7 +65288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -65405,7 +65395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -65512,7 +65502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -65633,12 +65623,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -65745,7 +65735,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -65852,7 +65842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -65959,7 +65949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -66066,7 +66056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -66173,7 +66163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -66314,7 +66304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -66421,7 +66411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -66528,7 +66518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -66635,7 +66625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -66742,7 +66732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -66865,12 +66855,12 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -66977,7 +66967,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -67084,7 +67074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -67191,7 +67181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -67298,7 +67288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -67405,7 +67395,7 @@
         <v>0.42991564609237387</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -67512,7 +67502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -67653,7 +67643,7 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -67760,7 +67750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -67867,7 +67857,7 @@
         <v>0.57008435390762602</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -67974,7 +67964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -68097,12 +68087,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -68212,7 +68202,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -68322,7 +68312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -68432,7 +68422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -68542,7 +68532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -68652,7 +68642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -68762,7 +68752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -68872,7 +68862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -68982,7 +68972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -69092,7 +69082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -69202,7 +69192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -69326,12 +69316,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -69438,7 +69428,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -69545,7 +69535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -69652,7 +69642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -69759,7 +69749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -69866,7 +69856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -69973,7 +69963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -70080,7 +70070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -70187,7 +70177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -70294,7 +70284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -70401,7 +70391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -70522,7 +70512,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -70537,12 +70527,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -70652,7 +70642,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -70762,7 +70752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -70872,7 +70862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -70982,7 +70972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -71092,7 +71082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -71202,7 +71192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -71312,7 +71302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -71422,7 +71412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -71532,7 +71522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -71642,7 +71632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -71766,12 +71756,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -71881,7 +71871,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -71991,7 +71981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -72101,7 +72091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -72211,7 +72201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -72321,7 +72311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -72431,7 +72421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -72541,7 +72531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -72651,7 +72641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -72761,7 +72751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -72871,7 +72861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -72997,12 +72987,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -73112,7 +73102,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -73222,7 +73212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -73332,7 +73322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -73442,7 +73432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -73552,7 +73542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -73662,7 +73652,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -73772,7 +73762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -73882,7 +73872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -73992,7 +73982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -74102,7 +74092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -74228,12 +74218,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -74343,7 +74333,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -74453,7 +74443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -74563,7 +74553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -74673,7 +74663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -74783,7 +74773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -74893,7 +74883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -75003,7 +74993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -75113,7 +75103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -75223,7 +75213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -75333,7 +75323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -75459,12 +75449,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -75574,7 +75564,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -75684,7 +75674,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -75794,7 +75784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -75904,7 +75894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -76014,7 +76004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -76124,7 +76114,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -76234,7 +76224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -76344,7 +76334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -76454,7 +76444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -76564,7 +76554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -76688,12 +76678,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -76803,7 +76793,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -76913,7 +76903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -77023,7 +77013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -77133,7 +77123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -77243,7 +77233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -77353,7 +77343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -77463,7 +77453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -77573,7 +77563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -77683,7 +77673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -77793,7 +77783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -77917,12 +77907,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -78032,7 +78022,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -78142,7 +78132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -78252,7 +78242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -78362,7 +78352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -78472,7 +78462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -78582,7 +78572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -78692,7 +78682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -78802,7 +78792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -78912,7 +78902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -79022,7 +79012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -79146,7 +79136,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79163,12 +79153,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -79278,7 +79268,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -79388,7 +79378,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -79498,7 +79488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -79608,7 +79598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -79718,7 +79708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -79863,7 +79853,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -79973,7 +79963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -80083,7 +80073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -80193,7 +80183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -80303,7 +80293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -80430,12 +80420,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -80545,7 +80535,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -80655,7 +80645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -80765,7 +80755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -80875,7 +80865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -80985,7 +80975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -81095,7 +81085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -81205,7 +81195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -81315,7 +81305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -81425,7 +81415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -81535,7 +81525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -81659,12 +81649,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -81774,7 +81764,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -81884,7 +81874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -81994,7 +81984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -82104,7 +82094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -82214,7 +82204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -82324,7 +82314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -82434,7 +82424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -82544,7 +82534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -82654,7 +82644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -82764,7 +82754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -82890,12 +82880,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -83005,7 +82995,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -83115,7 +83105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -83225,7 +83215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -83335,7 +83325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -83445,7 +83435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -83590,7 +83580,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -83700,7 +83690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -83810,7 +83800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -83920,7 +83910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -84030,7 +84020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -84156,12 +84146,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -84271,7 +84261,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -84381,7 +84371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -84491,7 +84481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -84601,7 +84591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -84711,7 +84701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -84821,7 +84811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -84966,7 +84956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -85076,7 +85066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -85186,7 +85176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -85296,7 +85286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -85422,12 +85412,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -85537,7 +85527,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -85647,7 +85637,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -85757,7 +85747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -85867,7 +85857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -85977,7 +85967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -86122,7 +86112,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -86232,7 +86222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -86342,7 +86332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -86452,7 +86442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -86562,7 +86552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -86686,12 +86676,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -86801,7 +86791,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -86911,7 +86901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -87021,7 +87011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -87131,7 +87121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -87241,7 +87231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -87351,7 +87341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -87461,7 +87451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -87571,7 +87561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -87681,7 +87671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -87791,7 +87781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -87915,12 +87905,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -88030,7 +88020,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -88140,7 +88130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -88250,7 +88240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -88360,7 +88350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -88470,7 +88460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -88580,7 +88570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -88690,7 +88680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -88800,7 +88790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -88910,7 +88900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -89020,7 +89010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -89144,12 +89134,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -89259,7 +89249,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -89369,7 +89359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -89479,7 +89469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -89589,7 +89579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -89699,7 +89689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -89809,7 +89799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -89919,7 +89909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -90029,7 +90019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -90139,7 +90129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -90249,7 +90239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
